--- a/tests/data/expected-pandas.xlsx
+++ b/tests/data/expected-pandas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PandasModel" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="create_frame" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="frame_add_column" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="frame_subtract_column" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="PandasModel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="create_frame" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="frame_add_column" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="frame_subtract_column" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,15 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -356,7 +356,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.14" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="2.14"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -491,7 +491,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -509,8 +509,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.14" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="2.14"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -645,7 +645,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -663,8 +663,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.14" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="2.14"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -833,7 +833,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -851,8 +851,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.14" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="2.14"/>
+    <col customWidth="1" max="2" min="2" width="12"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1041,6 +1041,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>